--- a/branches/main/StructureDefinition-omrs-patient.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T19:37:29+00:00</t>
+    <t>2022-07-25T18:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1457,43 +1457,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="62.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>

--- a/branches/main/StructureDefinition-omrs-patient.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:24:15+00:00</t>
+    <t>2022-07-25T18:24:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
